--- a/Geico/GeicoExcelData/GeicoInsuranceRegister.xlsx
+++ b/Geico/GeicoExcelData/GeicoInsuranceRegister.xlsx
@@ -12,15 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>DateOfBirth</t>
   </si>
   <si>
-    <t>BirthMonth</t>
-  </si>
-  <si>
-    <t>BirthYear</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Apt#</t>
   </si>
   <si>
     <t>Email</t>
@@ -32,13 +38,19 @@
     <t>12311985</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>yinyan79@gmail.com</t>
+    <t>Moni</t>
+  </si>
+  <si>
+    <t>Hashem</t>
+  </si>
+  <si>
+    <t>1123 Elmont Ave</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>yinyan58@gmail.com</t>
   </si>
   <si>
     <t>ABcDe123</t>
@@ -47,19 +59,25 @@
     <t>713194</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1989</t>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>6151989</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1980</t>
+    <t>Ilium</t>
+  </si>
+  <si>
+    <t>Alihandra</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -104,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,56 +144,80 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Geico/GeicoExcelData/GeicoInsuranceRegister.xlsx
+++ b/Geico/GeicoExcelData/GeicoInsuranceRegister.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>DateOfBirth</t>
   </si>
@@ -29,6 +29,24 @@
     <t>Apt#</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Area code</t>
+  </si>
+  <si>
+    <t>PhoneNumberInputBoxOne</t>
+  </si>
+  <si>
+    <t>PhoneNumberInputBoxTwo</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -50,7 +68,25 @@
     <t>20</t>
   </si>
   <si>
-    <t>yinyan58@gmail.com</t>
+    <t>Deptford</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>08096</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>5678</t>
+  </si>
+  <si>
+    <t>yinyan54@gmail.com</t>
   </si>
   <si>
     <t>ABcDe123</t>
@@ -68,6 +104,15 @@
     <t>21</t>
   </si>
   <si>
+    <t>Avenel</t>
+  </si>
+  <si>
+    <t>07001</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
     <t>6151989</t>
   </si>
   <si>
@@ -78,6 +123,15 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>Bayonne</t>
+  </si>
+  <si>
+    <t>07003</t>
+  </si>
+  <si>
+    <t>336</t>
   </si>
 </sst>
 </file>
@@ -122,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,74 +204,146 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
